--- a/template-generator/USDM_3.0_Test_Data_Template.xlsx
+++ b/template-generator/USDM_3.0_Test_Data_Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CDISC\ddf-core-poc\template-generator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3A96EBD1-061B-4D19-9C32-B1DD3DB68E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07A3BA1E-0E85-41CF-AE11-414D998F704D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4905" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -76,12 +76,25 @@
     <sheet name="boolean.xpt" sheetId="61" r:id="rId61"/>
     <sheet name="null.xpt" sheetId="62" r:id="rId62"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5109" uniqueCount="1890">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5065" uniqueCount="1890">
   <si>
     <t>Filename</t>
   </si>
@@ -6894,16 +6907,16 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="20" width="25.73046875" customWidth="1"/>
+    <col min="1" max="19" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -6932,37 +6945,34 @@
         <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>593</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>572</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>573</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -6991,37 +7001,34 @@
         <v>598</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>599</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>600</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>601</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>605</v>
-      </c>
-      <c r="S2" s="3" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -7059,10 +7066,10 @@
         <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>38</v>
@@ -7076,11 +7083,8 @@
       <c r="R3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -7109,37 +7113,34 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -7158,7 +7159,6 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12120,240 +12120,6 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1D00-000000000000}">
-  <dimension ref="A1:P5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="17" width="25.73046875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1021</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>1024</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1025</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>1026</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1027</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1028</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1029</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1030</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1031</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1032</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>1034</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>673</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>779</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>1035</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>1036</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.45">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -12389,25 +12155,25 @@
         <v>13</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>1020</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>611</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>762</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>1021</v>
-      </c>
       <c r="N1" s="1" t="s">
-        <v>14</v>
+        <v>1022</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1040</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="42.75" x14ac:dyDescent="0.45">
@@ -12424,37 +12190,37 @@
         <v>25</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1041</v>
+        <v>1024</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1042</v>
+        <v>1025</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1043</v>
+        <v>1026</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1044</v>
+        <v>1027</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>1028</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1029</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1030</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1031</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>1045</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1046</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1047</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1048</v>
-      </c>
       <c r="N2" s="3" t="s">
-        <v>30</v>
+        <v>1032</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1049</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.45">
@@ -12498,10 +12264,10 @@
         <v>38</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="28.5" x14ac:dyDescent="0.45">
@@ -12530,25 +12296,25 @@
         <v>41</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>40</v>
+        <v>1034</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1034</v>
+        <v>673</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>673</v>
+        <v>779</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>779</v>
+        <v>1035</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1035</v>
+        <v>40</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>40</v>
+        <v>1036</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1050</v>
+        <v>755</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.45">
@@ -12567,6 +12333,214 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1E00-000000000000}">
+  <dimension ref="A1:N5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="15" width="25.73046875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>762</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1044</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1045</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1046</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1047</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1048</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>1034</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>779</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>1035</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13641,16 +13615,16 @@
 
 <file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2400-000000000000}">
-  <dimension ref="A1:V5"/>
+  <dimension ref="A1:U5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="23" width="25.73046875" customWidth="1"/>
+    <col min="1" max="22" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -13679,46 +13653,43 @@
         <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>14</v>
+        <v>1144</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>1150</v>
+        <v>660</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>660</v>
-      </c>
-      <c r="V1" s="1" t="s">
         <v>659</v>
       </c>
     </row>
-    <row r="2" spans="1:22" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:21" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -13747,46 +13718,43 @@
         <v>1155</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1157</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1156</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1157</v>
-      </c>
       <c r="M2" s="3" t="s">
-        <v>30</v>
+        <v>1158</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>1165</v>
-      </c>
-      <c r="V2" s="3" t="s">
         <v>1166</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -13824,10 +13792,10 @@
         <v>38</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>38</v>
@@ -13850,11 +13818,8 @@
       <c r="U3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:21" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -13883,46 +13848,43 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>40</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>77</v>
+        <v>1167</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="U4" s="3" t="s">
         <v>1168</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>1168</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.45">
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -13944,7 +13906,6 @@
       <c r="S5" s="4"/>
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16020,16 +15981,16 @@
 
 <file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-2B00-000000000000}">
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AG5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="35" width="25.73046875" customWidth="1"/>
+    <col min="1" max="34" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -16046,94 +16007,91 @@
         <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>786</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>916</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>918</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>785</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>786</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>914</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>916</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>917</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>918</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>919</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>630</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>632</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>634</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>635</v>
-      </c>
       <c r="V1" s="1" t="s">
-        <v>14</v>
+        <v>1329</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>1339</v>
-      </c>
-      <c r="AH1" s="1" t="s">
         <v>1340</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -16150,94 +16108,91 @@
         <v>1341</v>
       </c>
       <c r="F2" s="3" t="s">
+        <v>1342</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>1344</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>1345</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>1346</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1347</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1348</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1349</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1350</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1351</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1352</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1353</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1354</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1355</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1356</v>
+      </c>
+      <c r="U2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>1342</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>1343</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>1344</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>1345</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>1346</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1347</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1348</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1349</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1350</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1351</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>1352</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>1353</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>1354</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>1355</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>1356</v>
-      </c>
       <c r="V2" s="3" t="s">
-        <v>30</v>
+        <v>1357</v>
       </c>
       <c r="W2" s="3" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="X2" s="3" t="s">
-        <v>1358</v>
+        <v>1359</v>
       </c>
       <c r="Y2" s="3" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="Z2" s="3" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="AA2" s="3" t="s">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="AB2" s="3" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="AC2" s="3" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="AD2" s="3" t="s">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="AE2" s="3" t="s">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="AF2" s="3" t="s">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="AG2" s="3" t="s">
-        <v>1367</v>
-      </c>
-      <c r="AH2" s="3" t="s">
         <v>1368</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -16254,94 +16209,91 @@
         <v>38</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="I3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="O3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="S3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>400</v>
-      </c>
       <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AA3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AB3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AG3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:33" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -16358,94 +16310,91 @@
         <v>40</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>40</v>
+        <v>1008</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>1016</v>
+        <v>72</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>40</v>
+        <v>1369</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>1369</v>
+        <v>1370</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>1370</v>
+        <v>1371</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>1372</v>
+        <v>1373</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>1373</v>
+        <v>1374</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>1377</v>
+        <v>1378</v>
       </c>
       <c r="AF4" s="3" t="s">
-        <v>1378</v>
+        <v>1379</v>
       </c>
       <c r="AG4" s="3" t="s">
-        <v>1379</v>
-      </c>
-      <c r="AH4" s="3" t="s">
         <v>1380</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -16479,7 +16428,6 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
       <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18412,16 +18360,16 @@
 
 <file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3000-000000000000}">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="53" width="25.73046875" customWidth="1"/>
+    <col min="1" max="52" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -18450,136 +18398,133 @@
         <v>462</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -18608,136 +18553,133 @@
         <v>1638</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1639</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1641</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1642</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1643</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1644</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1645</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1646</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1647</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1648</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1649</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1650</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1651</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>1652</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>1653</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>1654</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>1655</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>1656</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>1657</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>1658</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>1659</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>1660</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>1661</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>1662</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>1663</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>1664</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>1667</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>1668</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>1669</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>1670</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>1671</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>1672</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>1673</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>1674</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>1675</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>1676</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>1677</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>1678</v>
+      </c>
+      <c r="AX2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1639</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1640</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1641</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1642</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1643</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1644</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>1645</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>1646</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>1647</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>1648</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>1649</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>1650</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>1651</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>1652</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>1653</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>1654</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>1655</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>1656</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>1657</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>1658</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>1659</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>1660</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>1661</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>1662</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>1663</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>1664</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>1665</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>1666</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>1667</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>1668</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>1669</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>1670</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>1671</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>1672</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>1673</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>1674</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>1675</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>1676</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>1677</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>1678</v>
-      </c>
       <c r="AY2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
         <v>1679</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -18766,136 +18708,133 @@
         <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AC3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AH3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AN3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AS3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:51" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -18924,136 +18863,133 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>409</v>
+        <v>550</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AN4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="AX4" s="3" t="s">
-        <v>561</v>
+        <v>40</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
         <v>1680</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -19105,7 +19041,6 @@
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19530,16 +19465,16 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3100-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="13" width="25.73046875" customWidth="1"/>
+    <col min="1" max="12" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -19568,16 +19503,13 @@
         <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -19606,16 +19538,13 @@
         <v>1687</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1688</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1688</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -19649,11 +19578,8 @@
       <c r="K3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -19682,16 +19608,13 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -19703,7 +19626,6 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20128,16 +20050,16 @@
 
 <file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="15" width="25.73046875" customWidth="1"/>
+    <col min="1" max="14" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20166,22 +20088,19 @@
         <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>1721</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>1721</v>
-      </c>
-      <c r="N1" s="1" t="s">
         <v>1722</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -20210,22 +20129,19 @@
         <v>1727</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1728</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1728</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>30</v>
+        <v>1729</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>1729</v>
-      </c>
-      <c r="N2" s="3" t="s">
         <v>1730</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -20260,16 +20176,13 @@
         <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="114" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:13" ht="114" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -20298,22 +20211,19 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>1731</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>1731</v>
-      </c>
-      <c r="N4" s="3" t="s">
         <v>1732</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -20327,7 +20237,6 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20531,16 +20440,16 @@
 
 <file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
-  <dimension ref="A1:AF5"/>
+  <dimension ref="A1:AE5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="33" width="25.73046875" customWidth="1"/>
+    <col min="1" max="32" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:31" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -20569,76 +20478,73 @@
         <v>167</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>187</v>
-      </c>
       <c r="AE1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AF1" s="1" t="s">
         <v>1746</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:31" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -20667,76 +20573,73 @@
         <v>1751</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>1755</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>1756</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>1759</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>1762</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>1763</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>1764</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>1765</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="AD2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>1755</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>1756</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>1757</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>1758</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>1759</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>1760</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>1761</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>1762</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>1763</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>1764</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>1765</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>210</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>212</v>
-      </c>
       <c r="AE2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF2" s="3" t="s">
         <v>1766</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -20765,76 +20668,73 @@
         <v>38</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="S3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="U3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="V3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="T3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="V3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="X3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="Y3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AD3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:31" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -20863,76 +20763,73 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>213</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="T4" s="3" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="U4" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V4" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W4" s="3" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="X4" s="3" t="s">
-        <v>226</v>
+        <v>72</v>
       </c>
       <c r="Y4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="AE4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AF4" s="3" t="s">
         <v>1767</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -20964,7 +20861,6 @@
       <c r="AC5" s="4"/>
       <c r="AD5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23508,16 +23404,16 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:AZ5"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="53" width="25.73046875" customWidth="1"/>
+    <col min="1" max="52" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:51" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -23546,136 +23442,133 @@
         <v>462</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="AX1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>482</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>483</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>487</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>489</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>490</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>491</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>502</v>
-      </c>
       <c r="AY1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="2" spans="1:52" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:51" ht="57" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -23704,136 +23597,133 @@
         <v>508</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>515</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="V2" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="W2" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y2" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="Z2" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="AA2" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="AC2" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="AD2" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="AE2" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF2" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="AG2" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="AH2" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="AI2" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="AJ2" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="AK2" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="AL2" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="AM2" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="AN2" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="AP2" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="AQ2" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="AR2" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="AS2" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="AT2" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="AU2" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="AV2" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="AW2" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="AX2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>509</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>510</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>511</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>512</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>513</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>514</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>515</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>516</v>
-      </c>
-      <c r="S2" s="3" t="s">
-        <v>517</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="U2" s="3" t="s">
-        <v>519</v>
-      </c>
-      <c r="V2" s="3" t="s">
-        <v>520</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>521</v>
-      </c>
-      <c r="X2" s="3" t="s">
-        <v>522</v>
-      </c>
-      <c r="Y2" s="3" t="s">
-        <v>523</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>524</v>
-      </c>
-      <c r="AA2" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="AB2" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>527</v>
-      </c>
-      <c r="AD2" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="AE2" s="3" t="s">
-        <v>529</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>530</v>
-      </c>
-      <c r="AG2" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH2" s="3" t="s">
-        <v>532</v>
-      </c>
-      <c r="AI2" s="3" t="s">
-        <v>533</v>
-      </c>
-      <c r="AJ2" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="AK2" s="3" t="s">
-        <v>535</v>
-      </c>
-      <c r="AL2" s="3" t="s">
-        <v>536</v>
-      </c>
-      <c r="AM2" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>538</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>539</v>
-      </c>
-      <c r="AP2" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="AQ2" s="3" t="s">
-        <v>541</v>
-      </c>
-      <c r="AR2" s="3" t="s">
-        <v>542</v>
-      </c>
-      <c r="AS2" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>544</v>
-      </c>
-      <c r="AU2" s="3" t="s">
-        <v>545</v>
-      </c>
-      <c r="AV2" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="AW2" s="3" t="s">
-        <v>547</v>
-      </c>
-      <c r="AX2" s="3" t="s">
-        <v>548</v>
-      </c>
       <c r="AY2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="AZ2" s="3" t="s">
         <v>549</v>
       </c>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -23862,136 +23752,133 @@
         <v>39</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>39</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="R3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="S3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="W3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="X3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Y3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Z3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="X3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Y3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AB3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AC3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AE3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="AF3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="AG3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AH3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AI3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AK3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AL3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AI3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AJ3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AK3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AL3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM3" s="3" t="s">
-        <v>38</v>
-      </c>
       <c r="AN3" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>38</v>
+        <v>400</v>
       </c>
       <c r="AP3" s="3" t="s">
         <v>400</v>
       </c>
       <c r="AQ3" s="3" t="s">
-        <v>400</v>
+        <v>39</v>
       </c>
       <c r="AR3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="AS3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AT3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AU3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AV3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AX3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="AT3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AU3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AV3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AW3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AX3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="AZ3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:52" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:51" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -24020,136 +23907,133 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>404</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>409</v>
+        <v>550</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="T4" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="U4" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="V4" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="W4" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="X4" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="Y4" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="Z4" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="AA4" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="AB4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="S4" s="3" t="s">
+      <c r="AC4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="T4" s="3" t="s">
+      <c r="AD4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="U4" s="3" t="s">
+      <c r="AE4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="V4" s="3" t="s">
+      <c r="AF4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="AG4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="X4" s="3" t="s">
+      <c r="AH4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="Y4" s="3" t="s">
+      <c r="AI4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="Z4" s="3" t="s">
+      <c r="AJ4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AA4" s="3" t="s">
+      <c r="AK4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AB4" s="3" t="s">
+      <c r="AL4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AC4" s="3" t="s">
+      <c r="AM4" s="3" t="s">
         <v>551</v>
       </c>
-      <c r="AD4" s="3" t="s">
+      <c r="AN4" s="3" t="s">
         <v>552</v>
       </c>
-      <c r="AE4" s="3" t="s">
+      <c r="AO4" s="3" t="s">
         <v>553</v>
       </c>
-      <c r="AF4" s="3" t="s">
+      <c r="AP4" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="AG4" s="3" t="s">
+      <c r="AQ4" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="AH4" s="3" t="s">
+      <c r="AR4" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="AI4" s="3" t="s">
+      <c r="AS4" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="AJ4" s="3" t="s">
+      <c r="AT4" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="AK4" s="3" t="s">
+      <c r="AU4" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="AL4" s="3" t="s">
+      <c r="AV4" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="AM4" s="3" t="s">
+      <c r="AW4" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="AN4" s="3" t="s">
-        <v>551</v>
-      </c>
-      <c r="AO4" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="AP4" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="AQ4" s="3" t="s">
-        <v>554</v>
-      </c>
-      <c r="AR4" s="3" t="s">
-        <v>555</v>
-      </c>
-      <c r="AS4" s="3" t="s">
-        <v>556</v>
-      </c>
-      <c r="AT4" s="3" t="s">
-        <v>557</v>
-      </c>
-      <c r="AU4" s="3" t="s">
-        <v>558</v>
-      </c>
-      <c r="AV4" s="3" t="s">
-        <v>559</v>
-      </c>
-      <c r="AW4" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="AX4" s="3" t="s">
-        <v>561</v>
+        <v>40</v>
       </c>
       <c r="AY4" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ4" s="3" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="5" spans="1:52" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:51" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -24201,7 +24085,6 @@
       <c r="AW5" s="4"/>
       <c r="AX5" s="4"/>
       <c r="AY5" s="4"/>
-      <c r="AZ5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24210,16 +24093,16 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:S5"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="20" width="25.73046875" customWidth="1"/>
+    <col min="1" max="19" width="25.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -24248,37 +24131,34 @@
         <v>566</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>567</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>568</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>573</v>
-      </c>
-      <c r="S1" s="1" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="2" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -24307,37 +24187,34 @@
         <v>579</v>
       </c>
       <c r="J2" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="s">
-        <v>580</v>
-      </c>
       <c r="L2" s="3" t="s">
-        <v>30</v>
+        <v>581</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="S2" s="3" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>38</v>
       </c>
@@ -24372,31 +24249,28 @@
         <v>38</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="S3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" ht="28.5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="4" spans="1:18" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>40</v>
       </c>
@@ -24425,37 +24299,34 @@
         <v>40</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>40</v>
+        <v>588</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>588</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="S4" s="3" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -24474,7 +24345,6 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
